--- a/teams-and-rosters/CS320_102_sp17_Class_List.xlsx
+++ b/teams-and-rosters/CS320_102_sp17_Class_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Last Name</t>
   </si>
@@ -155,13 +155,16 @@
   </si>
   <si>
     <t>cwells@ycp.edu</t>
+  </si>
+  <si>
+    <t>CS320 Section 102 (11:00 - 11:50)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +296,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -639,12 +658,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -989,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,63 +1025,38 @@
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -1068,83 +1065,83 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -1153,66 +1150,66 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
@@ -1221,10 +1218,47 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>